--- a/conf-core/src/test/resources/dataloader/units-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/units-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="6555" yWindow="1245" windowWidth="14340" windowHeight="7950"/>
   </bookViews>
@@ -272,17 +277,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -311,9 +307,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,20 +645,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
     </row>

--- a/conf-core/src/test/resources/dataloader/units-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/units-test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/twiC24/jp4QHQmaIXlVKg6zKK36SE+AZawijxc29Fw0bP4RB6x2m3Z+YsFM16dhOi5Q1YcuA5AwNcQeB6W5kg==" workbookSaltValue="mp3CKO0oFlisoDrQArwULQ==" workbookSpinCount="100000" lockStructure="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -245,13 +245,19 @@
   </si>
   <si>
     <t>CREATE</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +269,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,10 +320,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -327,8 +342,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:A26"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> SUMPRODUCT((B9:B65536 &lt;&gt; "") / COUNTIF(B9:B65536, B9:B65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((B10:B65537 &lt;&gt; "") / COUNTIF(B10:B65537, B10:B65537 &amp; ""))</f>
         <v>18</v>
       </c>
     </row>
@@ -674,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "CREATE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "CREATE")</f>
         <v>18</v>
       </c>
     </row>
@@ -689,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="5">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "UPDATE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "UPDATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -704,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "DELETE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "DELETE")</f>
         <v>0</v>
       </c>
     </row>
@@ -726,36 +744,31 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,13 +776,13 @@
         <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,42 +790,42 @@
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,13 +833,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,13 +847,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,13 +861,13 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -862,13 +875,13 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,13 +889,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,13 +903,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,13 +917,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,13 +931,13 @@
         <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,13 +945,13 @@
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,13 +959,13 @@
         <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,13 +973,13 @@
         <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,13 +987,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,28 +1001,44 @@
         <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RoLXS/csV/THvkiknfKGiUT+zKUC3UMEl9NSsD6h+5pju0P/IzyJDUsTHG4XxlmpBQLKh8B+oBbfd2BMXjv88w==" saltValue="EdmBTbBImHOWUBu3R4Tw/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Description (REQUIRED)" prompt="The description of the unit for the user." sqref="C8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Symbol (REQUIRED)" prompt="The symbol of the unit. E.g.: &quot;m&quot; for &quot;meter&quot;" sqref="D8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Description (REQUIRED)" prompt="The description of the unit for the user." sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Symbol (REQUIRED)" prompt="The symbol of the unit. E.g.: &quot;m&quot; for &quot;meter&quot;" sqref="D9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
       <formula1>"CREATE,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the possible import operations. If left blank, this line will not be imported. _x000a_This column is not imported into the database; it controls the import process." sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Unit name (REQUIRED)" prompt="The unique name of the unit" sqref="B8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the possible import operations. If left blank, this line will not be imported. _x000a_This column is not imported into the database; it controls the import process." sqref="A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Unit name (REQUIRED)" prompt="The unique name of the unit" sqref="B9"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="B2" numberStoredAsText="1"/>
   </ignoredErrors>
